--- a/formatos_hoja_de_calculo/catalogo_canton.xlsx
+++ b/formatos_hoja_de_calculo/catalogo_canton.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\registro_academico\formatos_hoja_de_calculo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5102E21E-4C26-4313-85BE-243931D2B712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5511F4-B576-45B5-A439-341284E395F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{15FBAE94-A86E-4FEC-A08D-C1B5BA0CBBD8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="181">
   <si>
     <t>Ayuta</t>
   </si>
@@ -169,6 +169,405 @@
   </si>
   <si>
     <t>codigo departamento</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Cujucuyo</t>
+  </si>
+  <si>
+    <t>Chilcuyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Jute </t>
+  </si>
+  <si>
+    <t>San Miguel</t>
+  </si>
+  <si>
+    <t>Santo Tomás</t>
+  </si>
+  <si>
+    <t>El Despoblado</t>
+  </si>
+  <si>
+    <t>El Matazano</t>
+  </si>
+  <si>
+    <t>Llano las Majadas</t>
+  </si>
+  <si>
+    <t>Palo Galán</t>
+  </si>
+  <si>
+    <t>San Francisco Apanta</t>
+  </si>
+  <si>
+    <t>San José Capulín</t>
+  </si>
+  <si>
+    <t>La Flor</t>
+  </si>
+  <si>
+    <t>Guacamayas</t>
+  </si>
+  <si>
+    <t>La Danta</t>
+  </si>
+  <si>
+    <t>Las Piletas</t>
+  </si>
+  <si>
+    <t>Los Chilamates</t>
+  </si>
+  <si>
+    <t>Santa Cruz</t>
+  </si>
+  <si>
+    <t>El Guineo</t>
+  </si>
+  <si>
+    <t>El Pezote</t>
+  </si>
+  <si>
+    <t>El Rodeo</t>
+  </si>
+  <si>
+    <t>La Laguna</t>
+  </si>
+  <si>
+    <t>La Presa</t>
+  </si>
+  <si>
+    <t>Los Pinos</t>
+  </si>
+  <si>
+    <t>Monte Bello</t>
+  </si>
+  <si>
+    <t>San José de las Flores</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>El Carmen</t>
+  </si>
+  <si>
+    <t>Honduritas</t>
+  </si>
+  <si>
+    <t>La Joya</t>
+  </si>
+  <si>
+    <t>La Ruda</t>
+  </si>
+  <si>
+    <t>San Sebastián</t>
+  </si>
+  <si>
+    <t>El Mojón</t>
+  </si>
+  <si>
+    <t>El Tablón</t>
+  </si>
+  <si>
+    <t>La Piedrona</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>Aldea Zapote</t>
+  </si>
+  <si>
+    <t>Belén Guijat</t>
+  </si>
+  <si>
+    <t>Camulián</t>
+  </si>
+  <si>
+    <t>Cañas Dulces</t>
+  </si>
+  <si>
+    <t>Capulín</t>
+  </si>
+  <si>
+    <t>Cuyuiscat</t>
+  </si>
+  <si>
+    <t>El Brujo</t>
+  </si>
+  <si>
+    <t>El Carrizalillo</t>
+  </si>
+  <si>
+    <t>El Limón</t>
+  </si>
+  <si>
+    <t>El Malpaso</t>
+  </si>
+  <si>
+    <t>El Panal</t>
+  </si>
+  <si>
+    <t>El Rosario</t>
+  </si>
+  <si>
+    <t>El Shiste</t>
+  </si>
+  <si>
+    <t>La Ceibita</t>
+  </si>
+  <si>
+    <t>La Isla</t>
+  </si>
+  <si>
+    <t>Las Pavas</t>
+  </si>
+  <si>
+    <t>Las Piedras</t>
+  </si>
+  <si>
+    <t>Matalapa</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>San Antonio la Junta</t>
+  </si>
+  <si>
+    <t>San Antonio Masahuat</t>
+  </si>
+  <si>
+    <t>San Jerónimo</t>
+  </si>
+  <si>
+    <t>San José Ingenio</t>
+  </si>
+  <si>
+    <t>San Juan</t>
+  </si>
+  <si>
+    <t>San Miguel Ingenio</t>
+  </si>
+  <si>
+    <t>Santa Rita</t>
+  </si>
+  <si>
+    <t>Tahuilapa</t>
+  </si>
+  <si>
+    <t>Tecomapa</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Los Amates</t>
+  </si>
+  <si>
+    <t>San Luis</t>
+  </si>
+  <si>
+    <t>Santa Bárbara</t>
+  </si>
+  <si>
+    <t>Santa Rosa</t>
+  </si>
+  <si>
+    <t>El Centro</t>
+  </si>
+  <si>
+    <t>San Cristóbal</t>
+  </si>
+  <si>
+    <t>San Juan Chiquito</t>
+  </si>
+  <si>
+    <t>Santa Rosa Senca</t>
+  </si>
+  <si>
+    <t>Caña Brava</t>
+  </si>
+  <si>
+    <t>Conacastes</t>
+  </si>
+  <si>
+    <t>Concepción</t>
+  </si>
+  <si>
+    <t>El Cerro</t>
+  </si>
+  <si>
+    <t>El Tinteral</t>
+  </si>
+  <si>
+    <t>Jocotón</t>
+  </si>
+  <si>
+    <t>Junquillo</t>
+  </si>
+  <si>
+    <t>Palo Negro</t>
+  </si>
+  <si>
+    <t>Resbaladero</t>
+  </si>
+  <si>
+    <t>Solimán</t>
+  </si>
+  <si>
+    <t>Siete Príncipes</t>
+  </si>
+  <si>
+    <t>San Felipe</t>
+  </si>
+  <si>
+    <t>San Jacinto</t>
+  </si>
+  <si>
+    <t>Zacatal</t>
+  </si>
+  <si>
+    <t>Ayutuxtepeque</t>
+  </si>
+  <si>
+    <t>Buenos Aires</t>
+  </si>
+  <si>
+    <t>El Arado</t>
+  </si>
+  <si>
+    <t>El Coco</t>
+  </si>
+  <si>
+    <t>El Cuje</t>
+  </si>
+  <si>
+    <t>El Duraznillo</t>
+  </si>
+  <si>
+    <t>El Paste</t>
+  </si>
+  <si>
+    <t>El Tanque</t>
+  </si>
+  <si>
+    <t>Galeano</t>
+  </si>
+  <si>
+    <t>Guachipilín</t>
+  </si>
+  <si>
+    <t>La Libertad</t>
+  </si>
+  <si>
+    <t>La Magdalena</t>
+  </si>
+  <si>
+    <t>Las Cruces</t>
+  </si>
+  <si>
+    <t>Las Flores</t>
+  </si>
+  <si>
+    <t>Ojo de Agua</t>
+  </si>
+  <si>
+    <t>Piedra Rejada</t>
+  </si>
+  <si>
+    <t>Porvenir Jocotillo</t>
+  </si>
+  <si>
+    <t>San José</t>
+  </si>
+  <si>
+    <t>El Zacamil</t>
+  </si>
+  <si>
+    <t>Casa de Tejas</t>
+  </si>
+  <si>
+    <t>El Jute</t>
+  </si>
+  <si>
+    <t>La Criba</t>
+  </si>
+  <si>
+    <t>Los Parada</t>
+  </si>
+  <si>
+    <t>Monte Verde</t>
+  </si>
+  <si>
+    <t>Piedras Azules</t>
+  </si>
+  <si>
+    <t>San José Pinalito</t>
+  </si>
+  <si>
+    <t>San Vicente</t>
+  </si>
+  <si>
+    <t>Tierra Blanca</t>
   </si>
 </sst>
 </file>
@@ -542,10 +941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49AD191C-8A61-4F14-ADAE-245A9D773337}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="D146" sqref="D146:D156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1058,8 +1457,1689 @@
         <v>10</v>
       </c>
     </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D47">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D48">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D49">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D50">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D51">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D52">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D53">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D54">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B55" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B57" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B58" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B59" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B60" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B61" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B62" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B63" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B64" t="s">
+        <v>77</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B65" t="s">
+        <v>78</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B67" t="s">
+        <v>80</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B68" t="s">
+        <v>81</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B69" t="s">
+        <v>82</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B70" t="s">
+        <v>83</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B71" t="s">
+        <v>84</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B72" t="s">
+        <v>85</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B73" t="s">
+        <v>86</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B74" t="s">
+        <v>87</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B75" t="s">
+        <v>88</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B76" t="s">
+        <v>89</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B77" t="s">
+        <v>90</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B78" t="s">
+        <v>91</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B79" t="s">
+        <v>92</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B80" t="s">
+        <v>93</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B81" t="s">
+        <v>94</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B82" t="s">
+        <v>95</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B83" t="s">
+        <v>96</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B84" t="s">
+        <v>97</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B85" t="s">
+        <v>98</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B86" t="s">
+        <v>99</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B87" t="s">
+        <v>78</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B88" t="s">
+        <v>100</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B89" t="s">
+        <v>101</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B90" t="s">
+        <v>102</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B91" t="s">
+        <v>103</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B92" t="s">
+        <v>104</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B93" t="s">
+        <v>105</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B94" t="s">
+        <v>106</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B95" t="s">
+        <v>107</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B96" t="s">
+        <v>108</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B97" t="s">
+        <v>109</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B98" t="s">
+        <v>110</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B99" t="s">
+        <v>111</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B100" t="s">
+        <v>112</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B101" t="s">
+        <v>131</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B102" t="s">
+        <v>132</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B103" t="s">
+        <v>133</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B104" t="s">
+        <v>134</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B105" t="s">
+        <v>135</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B106" t="s">
+        <v>96</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B107" t="s">
+        <v>136</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B108" t="s">
+        <v>137</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B109" t="s">
+        <v>138</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B110" t="s">
+        <v>139</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B111" t="s">
+        <v>140</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B112" t="s">
+        <v>141</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B113" t="s">
+        <v>142</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B114" t="s">
+        <v>143</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B115" t="s">
+        <v>144</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B116" t="s">
+        <v>145</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B117" t="s">
+        <v>78</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B118" t="s">
+        <v>63</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B119" t="s">
+        <v>146</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B120" t="s">
+        <v>147</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B121" t="s">
+        <v>148</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B122" t="s">
+        <v>149</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B123" t="s">
+        <v>150</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B124" t="s">
+        <v>151</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B125" t="s">
+        <v>152</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B126" t="s">
+        <v>153</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B127" t="s">
+        <v>154</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B128" t="s">
+        <v>155</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B129" t="s">
+        <v>156</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B130" t="s">
+        <v>157</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B131" t="s">
+        <v>158</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B132" t="s">
+        <v>159</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B133" t="s">
+        <v>160</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B134" t="s">
+        <v>161</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B135" t="s">
+        <v>162</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B136" t="s">
+        <v>163</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B137" t="s">
+        <v>164</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B138" t="s">
+        <v>165</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B139" t="s">
+        <v>166</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B140" t="s">
+        <v>167</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B141" t="s">
+        <v>168</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B142" t="s">
+        <v>169</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B143" t="s">
+        <v>170</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B144" t="s">
+        <v>80</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B145" t="s">
+        <v>171</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B146" t="s">
+        <v>172</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B147" t="s">
+        <v>173</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B148" t="s">
+        <v>171</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B149" t="s">
+        <v>174</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B150" t="s">
+        <v>175</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B151" t="s">
+        <v>176</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B152" t="s">
+        <v>177</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B153" t="s">
+        <v>106</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B154" t="s">
+        <v>178</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B155" t="s">
+        <v>179</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B156" t="s">
+        <v>180</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/formatos_hoja_de_calculo/catalogo_canton.xlsx
+++ b/formatos_hoja_de_calculo/catalogo_canton.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\registro_academico\formatos_hoja_de_calculo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5511F4-B576-45B5-A439-341284E395F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7919E4-BD28-45EE-9539-AEB8B50C5332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{15FBAE94-A86E-4FEC-A08D-C1B5BA0CBBD8}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{15FBAE94-A86E-4FEC-A08D-C1B5BA0CBBD8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="SANTA ANA" sheetId="1" r:id="rId1"/>
+    <sheet name="AHUACHAPAN" sheetId="2" r:id="rId2"/>
+    <sheet name="Cantones Occidente" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1841" uniqueCount="419">
   <si>
     <t>Ayuta</t>
   </si>
@@ -568,13 +579,727 @@
   </si>
   <si>
     <t>Tierra Blanca</t>
+  </si>
+  <si>
+    <t>CODIGO DISTRITO</t>
+  </si>
+  <si>
+    <t>CODIGO DEPARTAMENTO</t>
+  </si>
+  <si>
+    <t>CODIGO CANTON</t>
+  </si>
+  <si>
+    <t>DESCRIPCION CANTON</t>
+  </si>
+  <si>
+    <t>ASHAPUCO</t>
+  </si>
+  <si>
+    <t>CUYANAUSUL</t>
+  </si>
+  <si>
+    <t>CHANCUYO</t>
+  </si>
+  <si>
+    <t>CHIPILAPA</t>
+  </si>
+  <si>
+    <t>EL ANONAL</t>
+  </si>
+  <si>
+    <t>EL BARRO</t>
+  </si>
+  <si>
+    <t>EL JUNQUILLO</t>
+  </si>
+  <si>
+    <t>EL ROBLE</t>
+  </si>
+  <si>
+    <t>EL TIGRE</t>
+  </si>
+  <si>
+    <t>GUAYALTEPEC</t>
+  </si>
+  <si>
+    <t>LA COYOTERA</t>
+  </si>
+  <si>
+    <t>LA DANTA</t>
+  </si>
+  <si>
+    <t>MONTAÑITA</t>
+  </si>
+  <si>
+    <t>LAS CHINAMAS</t>
+  </si>
+  <si>
+    <t>LOS HUATALES</t>
+  </si>
+  <si>
+    <t>LOS MAGUEYES</t>
+  </si>
+  <si>
+    <t>LOS TOLES</t>
+  </si>
+  <si>
+    <t>LOMA DE LA GLORIA</t>
+  </si>
+  <si>
+    <t>LLANO DE LA LAGUNA</t>
+  </si>
+  <si>
+    <t>LLANO DE DOÑA MARIA</t>
+  </si>
+  <si>
+    <t>NEJAPA</t>
+  </si>
+  <si>
+    <t>PALO PIQUE</t>
+  </si>
+  <si>
+    <t>RIO FRIO</t>
+  </si>
+  <si>
+    <t>SAN LAZARO</t>
+  </si>
+  <si>
+    <t>SAN RAMON</t>
+  </si>
+  <si>
+    <t>SANTA CRUZ</t>
+  </si>
+  <si>
+    <t>SANTA ROSA ACACALCO</t>
+  </si>
+  <si>
+    <t>SUNTECUMAT</t>
+  </si>
+  <si>
+    <t>TACUBITA</t>
+  </si>
+  <si>
+    <t>PALO VERDE</t>
+  </si>
+  <si>
+    <t>EL SAITILLAL</t>
+  </si>
+  <si>
+    <t>QUEZALAPA</t>
+  </si>
+  <si>
+    <t>TALTAPANCA</t>
+  </si>
+  <si>
+    <t>TIZAPA</t>
+  </si>
+  <si>
+    <t>TULAPA</t>
+  </si>
+  <si>
+    <t>JOYA DEL PLATANAR</t>
+  </si>
+  <si>
+    <t>EL CHAYAL</t>
+  </si>
+  <si>
+    <t>EL IZCAQUILIO</t>
+  </si>
+  <si>
+    <t>JOYA DEL ZAPOTE</t>
+  </si>
+  <si>
+    <t>LA ESPERANZA</t>
+  </si>
+  <si>
+    <t>LOMAS DE ALARCON</t>
+  </si>
+  <si>
+    <t>PEPENANCE</t>
+  </si>
+  <si>
+    <t>RINCON GRANDE</t>
+  </si>
+  <si>
+    <t>SALITRERO</t>
+  </si>
+  <si>
+    <t>SAN JUAN EL ESPINO</t>
+  </si>
+  <si>
+    <t>SANTA RITA</t>
+  </si>
+  <si>
+    <t>TAPACUN</t>
+  </si>
+  <si>
+    <t>EL TORTUGUERO</t>
+  </si>
+  <si>
+    <t>ZUNCA</t>
+  </si>
+  <si>
+    <t>EL ARCO</t>
+  </si>
+  <si>
+    <t>EL LIMO</t>
+  </si>
+  <si>
+    <t>EL MOLINO</t>
+  </si>
+  <si>
+    <t>EL NARANJITO</t>
+  </si>
+  <si>
+    <t>EL TRONCONAL</t>
+  </si>
+  <si>
+    <t>LA CEIBA</t>
+  </si>
+  <si>
+    <t>JOYA DE LOS APANTES</t>
+  </si>
+  <si>
+    <t>LOS TABLONES</t>
+  </si>
+  <si>
+    <t>SAN JOSE</t>
+  </si>
+  <si>
+    <t>SHUCUTITAN</t>
+  </si>
+  <si>
+    <t>TEXUXIN CHIRIZO</t>
+  </si>
+  <si>
+    <t>COMAPA</t>
+  </si>
+  <si>
+    <t>EL ROSARIO</t>
+  </si>
+  <si>
+    <t>SAN ANTONIO</t>
+  </si>
+  <si>
+    <t>CAUTA ABAJO</t>
+  </si>
+  <si>
+    <t>CAUTA ARRIBA</t>
+  </si>
+  <si>
+    <t>EL CARMEN</t>
+  </si>
+  <si>
+    <t>EL ESCALON</t>
+  </si>
+  <si>
+    <t>EL ZARZAL</t>
+  </si>
+  <si>
+    <t>IZTAGAPAN</t>
+  </si>
+  <si>
+    <t>LA PAZ</t>
+  </si>
+  <si>
+    <t>LOS PLATANARES</t>
+  </si>
+  <si>
+    <t>LOS PUENTECITOS</t>
+  </si>
+  <si>
+    <t>MORRO GRANDE</t>
+  </si>
+  <si>
+    <t>SAN ANDRES</t>
+  </si>
+  <si>
+    <t>SAN MARTIN</t>
+  </si>
+  <si>
+    <t>BARRA DE SANTIAGO</t>
+  </si>
+  <si>
+    <t>EL DIAMANTE</t>
+  </si>
+  <si>
+    <t>FAYA</t>
+  </si>
+  <si>
+    <t>GUAYAPA ABAJO</t>
+  </si>
+  <si>
+    <t>GUAYAPA ARRIBA</t>
+  </si>
+  <si>
+    <t>LAS MESAS</t>
+  </si>
+  <si>
+    <t>LOS AMATES</t>
+  </si>
+  <si>
+    <t>ROSARIO ABAJO</t>
+  </si>
+  <si>
+    <t>ROSARIO ARRIBA</t>
+  </si>
+  <si>
+    <t>SAN JOSE EL NARANJO</t>
+  </si>
+  <si>
+    <t>TIHUICHA</t>
+  </si>
+  <si>
+    <t>ZAPUA</t>
+  </si>
+  <si>
+    <t>CARA SUCIA</t>
+  </si>
+  <si>
+    <t>EL COROZO</t>
+  </si>
+  <si>
+    <t>EL JOCOTILLO</t>
+  </si>
+  <si>
+    <t>EL SACRAMENTO</t>
+  </si>
+  <si>
+    <t>EL ZAPOTE</t>
+  </si>
+  <si>
+    <t>GARITA PALMERA</t>
+  </si>
+  <si>
+    <t>LA HACHADURA</t>
+  </si>
+  <si>
+    <t>SAN BENITO</t>
+  </si>
+  <si>
+    <t>EL CONACASTE</t>
+  </si>
+  <si>
+    <t>EL JICARAL</t>
+  </si>
+  <si>
+    <t>EL PORTILLO</t>
+  </si>
+  <si>
+    <t>LA GUASCOTA</t>
+  </si>
+  <si>
+    <t>LAS POZAS</t>
+  </si>
+  <si>
+    <t>SAN JUAN BUENA VISTA</t>
+  </si>
+  <si>
+    <t>EL CORTEZ</t>
+  </si>
+  <si>
+    <t>EL DURAZNO</t>
+  </si>
+  <si>
+    <t>GUACHIPILIN</t>
+  </si>
+  <si>
+    <t>LA CONCEPCION</t>
+  </si>
+  <si>
+    <t>PULULAPA</t>
+  </si>
+  <si>
+    <t>TEXISPULCO</t>
+  </si>
+  <si>
+    <t>AGUA FRIA</t>
+  </si>
+  <si>
+    <t>EL CHAGUITE</t>
+  </si>
+  <si>
+    <t>EL JICARO</t>
+  </si>
+  <si>
+    <t>EL NISPERO</t>
+  </si>
+  <si>
+    <t>EL RODEO</t>
+  </si>
+  <si>
+    <t>EL SINCUYO</t>
+  </si>
+  <si>
+    <t>LOMA LARGA</t>
+  </si>
+  <si>
+    <t>LA MONTAÑA</t>
+  </si>
+  <si>
+    <t>LA PANDEADURA</t>
+  </si>
+  <si>
+    <t>LA PUERTA</t>
+  </si>
+  <si>
+    <t>MONTE HERMOSO</t>
+  </si>
+  <si>
+    <t>SAN RAFAEL</t>
+  </si>
+  <si>
+    <t>EL JOBO</t>
+  </si>
+  <si>
+    <t>EL PARAISO</t>
+  </si>
+  <si>
+    <t>EL COYOL</t>
+  </si>
+  <si>
+    <t>EL SALAMO</t>
+  </si>
+  <si>
+    <t>EL SUNCITA</t>
+  </si>
+  <si>
+    <t>METALIO</t>
+  </si>
+  <si>
+    <t>PUNTA REMEDIOS</t>
+  </si>
+  <si>
+    <t>SAN JULIAN</t>
+  </si>
+  <si>
+    <t>VALLE NUEVO</t>
+  </si>
+  <si>
+    <t>AZACUALPA</t>
+  </si>
+  <si>
+    <t>EL CERRO</t>
+  </si>
+  <si>
+    <t>EL GUAYABO</t>
+  </si>
+  <si>
+    <t>LAS CRUCITAS</t>
+  </si>
+  <si>
+    <t>LOS MANGOS</t>
+  </si>
+  <si>
+    <t>TRES CEIBAS</t>
+  </si>
+  <si>
+    <t>AGUA CALIENTE</t>
+  </si>
+  <si>
+    <t>SUQUIAT</t>
+  </si>
+  <si>
+    <t>EL CASTAÑO</t>
+  </si>
+  <si>
+    <t>LAS FLORES</t>
+  </si>
+  <si>
+    <t>AMAYO</t>
+  </si>
+  <si>
+    <t>LOS GRAMALES</t>
+  </si>
+  <si>
+    <t>CERRO ALTO</t>
+  </si>
+  <si>
+    <t>AGUASHUCA</t>
+  </si>
+  <si>
+    <t>APANCOYO</t>
+  </si>
+  <si>
+    <t>COQUIAMA</t>
+  </si>
+  <si>
+    <t>EL BALSAMAR</t>
+  </si>
+  <si>
+    <t>SAN LUCAS</t>
+  </si>
+  <si>
+    <t>ACACHAPA</t>
+  </si>
+  <si>
+    <t>ATILUYA</t>
+  </si>
+  <si>
+    <t>EL COROZAL</t>
+  </si>
+  <si>
+    <t>LAS PIEDRAS</t>
+  </si>
+  <si>
+    <t>MIRAMAR</t>
+  </si>
+  <si>
+    <t>PASO DE CANOAS</t>
+  </si>
+  <si>
+    <t>CANGREJERA</t>
+  </si>
+  <si>
+    <t>CEIBA DEL CHARCO</t>
+  </si>
+  <si>
+    <t>CRUZ GRANDE</t>
+  </si>
+  <si>
+    <t>CUNTAN</t>
+  </si>
+  <si>
+    <t>CUYAGUALO</t>
+  </si>
+  <si>
+    <t>CHORRO ABAJO</t>
+  </si>
+  <si>
+    <t>CHORRO ARRIBA</t>
+  </si>
+  <si>
+    <t>EL SUNZA</t>
+  </si>
+  <si>
+    <t>HUISCOYOLATE</t>
+  </si>
+  <si>
+    <t>JOYA DE CEREN</t>
+  </si>
+  <si>
+    <t>LA CHAPINA</t>
+  </si>
+  <si>
+    <t>QUEBRADA ESPAÑOLA</t>
+  </si>
+  <si>
+    <t>LAS HIGUERAS</t>
+  </si>
+  <si>
+    <t>LAS LAJAS</t>
+  </si>
+  <si>
+    <t>LAS MARIAS</t>
+  </si>
+  <si>
+    <t>PIEDRAS PACHAS</t>
+  </si>
+  <si>
+    <t>SAN ISIDRO</t>
+  </si>
+  <si>
+    <t>SAN LUIS</t>
+  </si>
+  <si>
+    <t>SHO SHON</t>
+  </si>
+  <si>
+    <t>TALCOMUNCA</t>
+  </si>
+  <si>
+    <t>TAPALSHUCUT</t>
+  </si>
+  <si>
+    <t>TECUMA</t>
+  </si>
+  <si>
+    <t>TESHCAL</t>
+  </si>
+  <si>
+    <t>LOS TUNALMILES</t>
+  </si>
+  <si>
+    <t>BUENOS AIRES</t>
+  </si>
+  <si>
+    <t>LA PUENTE</t>
+  </si>
+  <si>
+    <t>LA UNION</t>
+  </si>
+  <si>
+    <t>LOS APANTES</t>
+  </si>
+  <si>
+    <t>LOS CAÑALES</t>
+  </si>
+  <si>
+    <t>LOS NARANJOS</t>
+  </si>
+  <si>
+    <t>OJO DE AGUA</t>
+  </si>
+  <si>
+    <t>SAN JOSE LA MAJADA</t>
+  </si>
+  <si>
+    <t>SAN JUAN DE DIOS</t>
+  </si>
+  <si>
+    <t>ANAL ABAJO</t>
+  </si>
+  <si>
+    <t>ANAL ARRIBA</t>
+  </si>
+  <si>
+    <t>CUSAMALUCO</t>
+  </si>
+  <si>
+    <t>LOS ARENALES</t>
+  </si>
+  <si>
+    <t>EL CANELO</t>
+  </si>
+  <si>
+    <t>EL CARRIZAL</t>
+  </si>
+  <si>
+    <t>EL CERRITO</t>
+  </si>
+  <si>
+    <t>EL CHAPARRON</t>
+  </si>
+  <si>
+    <t>LA GUACAMAYA</t>
+  </si>
+  <si>
+    <t>PUSHTAN</t>
+  </si>
+  <si>
+    <t>SABANA GRANDE</t>
+  </si>
+  <si>
+    <t>SABANA SAN JUAN ABAJO</t>
+  </si>
+  <si>
+    <t>SABANA SAN JUAN ARRIBA</t>
+  </si>
+  <si>
+    <t>SISIMITEPEC</t>
+  </si>
+  <si>
+    <t>TAJCUILUJLAN</t>
+  </si>
+  <si>
+    <t>ALEMAN</t>
+  </si>
+  <si>
+    <t>CONACASTE HERRADO</t>
+  </si>
+  <si>
+    <t>PIEDRA DE MOLER</t>
+  </si>
+  <si>
+    <t>EL PUENTE</t>
+  </si>
+  <si>
+    <t>LO ANISALES</t>
+  </si>
+  <si>
+    <t>AGUA SANTA</t>
+  </si>
+  <si>
+    <t>CUYUAPA ABAJO</t>
+  </si>
+  <si>
+    <t>CUYUAPA ARRIBA</t>
+  </si>
+  <si>
+    <t>LAS HOJAS</t>
+  </si>
+  <si>
+    <t>CHILATA</t>
+  </si>
+  <si>
+    <t>EL ACHIOTAL</t>
+  </si>
+  <si>
+    <t>EL BEBEDERO</t>
+  </si>
+  <si>
+    <t>LOS LAGARTOS</t>
+  </si>
+  <si>
+    <t>PEÑA BLANCA</t>
+  </si>
+  <si>
+    <t>PETACAS</t>
+  </si>
+  <si>
+    <t>TIERRA COLORADA</t>
+  </si>
+  <si>
+    <t>CUYUAPA</t>
+  </si>
+  <si>
+    <t>EL MATAZANO</t>
+  </si>
+  <si>
+    <t>LAS PEÑAS</t>
+  </si>
+  <si>
+    <t>EL CAULOTE</t>
+  </si>
+  <si>
+    <t>EL ZOPE</t>
+  </si>
+  <si>
+    <t>CHIQUIHUAT</t>
+  </si>
+  <si>
+    <t>EL CACAO</t>
+  </si>
+  <si>
+    <t>EL EDEN</t>
+  </si>
+  <si>
+    <t>EL PRESIDIO</t>
+  </si>
+  <si>
+    <t>LA ENSENADA</t>
+  </si>
+  <si>
+    <t>LAS DELICIAS</t>
+  </si>
+  <si>
+    <t>LAS TABLAS</t>
+  </si>
+  <si>
+    <t>LOMA DEL MUERTO</t>
+  </si>
+  <si>
+    <t>MIRAVALLE</t>
+  </si>
+  <si>
+    <t>SALINAS DE AYACACHAPA</t>
+  </si>
+  <si>
+    <t>SANTA EMILIA</t>
+  </si>
+  <si>
+    <t>TONALA</t>
+  </si>
+  <si>
+    <t>EL ALMENDRO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -596,16 +1321,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -613,11 +1356,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -626,6 +1384,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -943,8 +1723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49AD191C-8A61-4F14-ADAE-245A9D773337}">
   <dimension ref="A1:D156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="D146" sqref="D146:D156"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3142,4 +3922,6396 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C5C946-3BE3-4DF8-8037-43F4826EB140}">
+  <dimension ref="A1:E245"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="5"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="5"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="5"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="5"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="5"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="5"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="5"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="5"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="5"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="5"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="5"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="5"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="5"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="5"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="5"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="5"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="5"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="5"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="5"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="5"/>
+      <c r="B122" s="5"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="5"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="5"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="5"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="5"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="5"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="5"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="5"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="5"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="5"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="5"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="5"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="5"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="5"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="5"/>
+      <c r="B136" s="5"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="5"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="5"/>
+      <c r="B138" s="5"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="5"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="5"/>
+      <c r="B140" s="5"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="5"/>
+      <c r="B141" s="5"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="5"/>
+      <c r="B142" s="5"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="5"/>
+      <c r="B143" s="5"/>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="5"/>
+      <c r="B144" s="5"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="5"/>
+      <c r="B145" s="5"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="5"/>
+      <c r="B146" s="5"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="5"/>
+      <c r="B147" s="5"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="5"/>
+      <c r="B148" s="5"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="5"/>
+      <c r="B149" s="5"/>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="5"/>
+      <c r="B150" s="5"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="5"/>
+      <c r="B151" s="5"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="5"/>
+      <c r="B152" s="5"/>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="5"/>
+      <c r="B153" s="5"/>
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="5"/>
+      <c r="B154" s="5"/>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="5"/>
+      <c r="B155" s="5"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="5"/>
+      <c r="B156" s="5"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="5"/>
+      <c r="B157" s="5"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="5"/>
+      <c r="B158" s="5"/>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="5"/>
+      <c r="B159" s="5"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="5"/>
+      <c r="B160" s="5"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="5"/>
+      <c r="B161" s="5"/>
+      <c r="C161" s="5"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="5"/>
+      <c r="B162" s="5"/>
+      <c r="C162" s="5"/>
+      <c r="D162" s="5"/>
+      <c r="E162" s="5"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="5"/>
+      <c r="B163" s="5"/>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="5"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="5"/>
+      <c r="B164" s="5"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="5"/>
+      <c r="B165" s="5"/>
+      <c r="C165" s="5"/>
+      <c r="D165" s="5"/>
+      <c r="E165" s="5"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="5"/>
+      <c r="B166" s="5"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="5"/>
+      <c r="B167" s="5"/>
+      <c r="C167" s="5"/>
+      <c r="D167" s="5"/>
+      <c r="E167" s="5"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="5"/>
+      <c r="B168" s="5"/>
+      <c r="C168" s="5"/>
+      <c r="D168" s="5"/>
+      <c r="E168" s="5"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="5"/>
+      <c r="B169" s="5"/>
+      <c r="C169" s="5"/>
+      <c r="D169" s="5"/>
+      <c r="E169" s="5"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="5"/>
+      <c r="B170" s="5"/>
+      <c r="C170" s="5"/>
+      <c r="D170" s="5"/>
+      <c r="E170" s="5"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="5"/>
+      <c r="B171" s="5"/>
+      <c r="C171" s="5"/>
+      <c r="D171" s="5"/>
+      <c r="E171" s="5"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="5"/>
+      <c r="B172" s="5"/>
+      <c r="C172" s="5"/>
+      <c r="D172" s="5"/>
+      <c r="E172" s="5"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="5"/>
+      <c r="B173" s="5"/>
+      <c r="C173" s="5"/>
+      <c r="D173" s="5"/>
+      <c r="E173" s="5"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="5"/>
+      <c r="B174" s="5"/>
+      <c r="C174" s="5"/>
+      <c r="D174" s="5"/>
+      <c r="E174" s="5"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="5"/>
+      <c r="B175" s="5"/>
+      <c r="C175" s="5"/>
+      <c r="D175" s="5"/>
+      <c r="E175" s="5"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="5"/>
+      <c r="B176" s="5"/>
+      <c r="C176" s="5"/>
+      <c r="D176" s="5"/>
+      <c r="E176" s="5"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="5"/>
+      <c r="B177" s="5"/>
+      <c r="C177" s="5"/>
+      <c r="D177" s="5"/>
+      <c r="E177" s="5"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="5"/>
+      <c r="B178" s="5"/>
+      <c r="C178" s="5"/>
+      <c r="D178" s="5"/>
+      <c r="E178" s="5"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="5"/>
+      <c r="B179" s="5"/>
+      <c r="C179" s="5"/>
+      <c r="D179" s="5"/>
+      <c r="E179" s="5"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="5"/>
+      <c r="B180" s="5"/>
+      <c r="C180" s="5"/>
+      <c r="D180" s="5"/>
+      <c r="E180" s="5"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="5"/>
+      <c r="B181" s="5"/>
+      <c r="C181" s="5"/>
+      <c r="D181" s="5"/>
+      <c r="E181" s="5"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="5"/>
+      <c r="B182" s="5"/>
+      <c r="C182" s="5"/>
+      <c r="D182" s="5"/>
+      <c r="E182" s="5"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="5"/>
+      <c r="B183" s="5"/>
+      <c r="C183" s="5"/>
+      <c r="D183" s="5"/>
+      <c r="E183" s="5"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="5"/>
+      <c r="B184" s="5"/>
+      <c r="C184" s="5"/>
+      <c r="D184" s="5"/>
+      <c r="E184" s="5"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="5"/>
+      <c r="B185" s="5"/>
+      <c r="C185" s="5"/>
+      <c r="D185" s="5"/>
+      <c r="E185" s="5"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="5"/>
+      <c r="B186" s="5"/>
+      <c r="C186" s="5"/>
+      <c r="D186" s="5"/>
+      <c r="E186" s="5"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="5"/>
+      <c r="B187" s="5"/>
+      <c r="C187" s="5"/>
+      <c r="D187" s="5"/>
+      <c r="E187" s="5"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="5"/>
+      <c r="B188" s="5"/>
+      <c r="C188" s="5"/>
+      <c r="D188" s="5"/>
+      <c r="E188" s="5"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="5"/>
+      <c r="B189" s="5"/>
+      <c r="C189" s="5"/>
+      <c r="D189" s="5"/>
+      <c r="E189" s="5"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="5"/>
+      <c r="B190" s="5"/>
+      <c r="C190" s="5"/>
+      <c r="D190" s="5"/>
+      <c r="E190" s="5"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="5"/>
+      <c r="B191" s="5"/>
+      <c r="C191" s="5"/>
+      <c r="D191" s="5"/>
+      <c r="E191" s="5"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="5"/>
+      <c r="B192" s="5"/>
+      <c r="C192" s="5"/>
+      <c r="D192" s="5"/>
+      <c r="E192" s="5"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="5"/>
+      <c r="B193" s="5"/>
+      <c r="C193" s="5"/>
+      <c r="D193" s="5"/>
+      <c r="E193" s="5"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="5"/>
+      <c r="B194" s="5"/>
+      <c r="C194" s="5"/>
+      <c r="D194" s="5"/>
+      <c r="E194" s="5"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="5"/>
+      <c r="B195" s="5"/>
+      <c r="C195" s="5"/>
+      <c r="D195" s="5"/>
+      <c r="E195" s="5"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="5"/>
+      <c r="B196" s="5"/>
+      <c r="C196" s="5"/>
+      <c r="D196" s="5"/>
+      <c r="E196" s="5"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="5"/>
+      <c r="B197" s="5"/>
+      <c r="C197" s="5"/>
+      <c r="D197" s="5"/>
+      <c r="E197" s="5"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="5"/>
+      <c r="B198" s="5"/>
+      <c r="C198" s="5"/>
+      <c r="D198" s="5"/>
+      <c r="E198" s="5"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="5"/>
+      <c r="B199" s="5"/>
+      <c r="C199" s="5"/>
+      <c r="D199" s="5"/>
+      <c r="E199" s="5"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="5"/>
+      <c r="B200" s="5"/>
+      <c r="C200" s="5"/>
+      <c r="D200" s="5"/>
+      <c r="E200" s="5"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="5"/>
+      <c r="B201" s="5"/>
+      <c r="C201" s="5"/>
+      <c r="D201" s="5"/>
+      <c r="E201" s="5"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="5"/>
+      <c r="B202" s="5"/>
+      <c r="C202" s="5"/>
+      <c r="D202" s="5"/>
+      <c r="E202" s="5"/>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="5"/>
+      <c r="B203" s="5"/>
+      <c r="C203" s="5"/>
+      <c r="D203" s="5"/>
+      <c r="E203" s="5"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="5"/>
+      <c r="B204" s="5"/>
+      <c r="C204" s="5"/>
+      <c r="D204" s="5"/>
+      <c r="E204" s="5"/>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="5"/>
+      <c r="B205" s="5"/>
+      <c r="C205" s="5"/>
+      <c r="D205" s="5"/>
+      <c r="E205" s="5"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="5"/>
+      <c r="B206" s="5"/>
+      <c r="C206" s="5"/>
+      <c r="D206" s="5"/>
+      <c r="E206" s="5"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="5"/>
+      <c r="B207" s="5"/>
+      <c r="C207" s="5"/>
+      <c r="D207" s="5"/>
+      <c r="E207" s="5"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="5"/>
+      <c r="B208" s="5"/>
+      <c r="C208" s="5"/>
+      <c r="D208" s="5"/>
+      <c r="E208" s="5"/>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="5"/>
+      <c r="B209" s="5"/>
+      <c r="C209" s="5"/>
+      <c r="D209" s="5"/>
+      <c r="E209" s="5"/>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" s="5"/>
+      <c r="B210" s="5"/>
+      <c r="C210" s="5"/>
+      <c r="D210" s="5"/>
+      <c r="E210" s="5"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" s="5"/>
+      <c r="B211" s="5"/>
+      <c r="C211" s="5"/>
+      <c r="D211" s="5"/>
+      <c r="E211" s="5"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" s="5"/>
+      <c r="B212" s="5"/>
+      <c r="C212" s="5"/>
+      <c r="D212" s="5"/>
+      <c r="E212" s="5"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" s="5"/>
+      <c r="B213" s="5"/>
+      <c r="C213" s="5"/>
+      <c r="D213" s="5"/>
+      <c r="E213" s="5"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" s="5"/>
+      <c r="B214" s="5"/>
+      <c r="C214" s="5"/>
+      <c r="D214" s="5"/>
+      <c r="E214" s="5"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" s="5"/>
+      <c r="B215" s="5"/>
+      <c r="C215" s="5"/>
+      <c r="D215" s="5"/>
+      <c r="E215" s="5"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" s="5"/>
+      <c r="B216" s="5"/>
+      <c r="C216" s="5"/>
+      <c r="D216" s="5"/>
+      <c r="E216" s="5"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" s="5"/>
+      <c r="B217" s="5"/>
+      <c r="C217" s="5"/>
+      <c r="D217" s="5"/>
+      <c r="E217" s="5"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" s="5"/>
+      <c r="B218" s="5"/>
+      <c r="C218" s="5"/>
+      <c r="D218" s="5"/>
+      <c r="E218" s="5"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" s="5"/>
+      <c r="B219" s="5"/>
+      <c r="C219" s="5"/>
+      <c r="D219" s="5"/>
+      <c r="E219" s="5"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="5"/>
+      <c r="B220" s="5"/>
+      <c r="C220" s="5"/>
+      <c r="D220" s="5"/>
+      <c r="E220" s="5"/>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="5"/>
+      <c r="B221" s="5"/>
+      <c r="C221" s="5"/>
+      <c r="D221" s="5"/>
+      <c r="E221" s="5"/>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="5"/>
+      <c r="B222" s="5"/>
+      <c r="C222" s="5"/>
+      <c r="D222" s="5"/>
+      <c r="E222" s="5"/>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" s="5"/>
+      <c r="B223" s="5"/>
+      <c r="C223" s="5"/>
+      <c r="D223" s="5"/>
+      <c r="E223" s="5"/>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" s="5"/>
+      <c r="B224" s="5"/>
+      <c r="C224" s="5"/>
+      <c r="D224" s="5"/>
+      <c r="E224" s="5"/>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" s="5"/>
+      <c r="B225" s="5"/>
+      <c r="C225" s="5"/>
+      <c r="D225" s="5"/>
+      <c r="E225" s="5"/>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" s="5"/>
+      <c r="B226" s="5"/>
+      <c r="C226" s="5"/>
+      <c r="D226" s="5"/>
+      <c r="E226" s="5"/>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" s="5"/>
+      <c r="B227" s="5"/>
+      <c r="C227" s="5"/>
+      <c r="D227" s="5"/>
+      <c r="E227" s="5"/>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" s="5"/>
+      <c r="B228" s="5"/>
+      <c r="C228" s="5"/>
+      <c r="D228" s="5"/>
+      <c r="E228" s="5"/>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" s="5"/>
+      <c r="B229" s="5"/>
+      <c r="C229" s="5"/>
+      <c r="D229" s="5"/>
+      <c r="E229" s="5"/>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" s="5"/>
+      <c r="B230" s="5"/>
+      <c r="C230" s="5"/>
+      <c r="D230" s="5"/>
+      <c r="E230" s="5"/>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" s="5"/>
+      <c r="B231" s="5"/>
+      <c r="C231" s="5"/>
+      <c r="D231" s="5"/>
+      <c r="E231" s="5"/>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" s="5"/>
+      <c r="B232" s="5"/>
+      <c r="C232" s="5"/>
+      <c r="D232" s="5"/>
+      <c r="E232" s="5"/>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" s="5"/>
+      <c r="B233" s="5"/>
+      <c r="C233" s="5"/>
+      <c r="D233" s="5"/>
+      <c r="E233" s="5"/>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" s="5"/>
+      <c r="B234" s="5"/>
+      <c r="C234" s="5"/>
+      <c r="D234" s="5"/>
+      <c r="E234" s="5"/>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" s="5"/>
+      <c r="B235" s="5"/>
+      <c r="C235" s="5"/>
+      <c r="D235" s="5"/>
+      <c r="E235" s="5"/>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" s="5"/>
+      <c r="B236" s="5"/>
+      <c r="C236" s="5"/>
+      <c r="D236" s="5"/>
+      <c r="E236" s="5"/>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" s="5"/>
+      <c r="B237" s="5"/>
+      <c r="C237" s="5"/>
+      <c r="D237" s="5"/>
+      <c r="E237" s="5"/>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" s="5"/>
+      <c r="B238" s="5"/>
+      <c r="C238" s="5"/>
+      <c r="D238" s="5"/>
+      <c r="E238" s="5"/>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" s="5"/>
+      <c r="B239" s="5"/>
+      <c r="C239" s="5"/>
+      <c r="D239" s="5"/>
+      <c r="E239" s="5"/>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" s="5"/>
+      <c r="B240" s="5"/>
+      <c r="C240" s="5"/>
+      <c r="D240" s="5"/>
+      <c r="E240" s="5"/>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" s="5"/>
+      <c r="B241" s="5"/>
+      <c r="C241" s="5"/>
+      <c r="D241" s="5"/>
+      <c r="E241" s="5"/>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" s="5"/>
+      <c r="B242" s="5"/>
+      <c r="C242" s="5"/>
+      <c r="D242" s="5"/>
+      <c r="E242" s="5"/>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" s="5"/>
+      <c r="B243" s="5"/>
+      <c r="C243" s="5"/>
+      <c r="D243" s="5"/>
+      <c r="E243" s="5"/>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" s="5"/>
+      <c r="B244" s="5"/>
+      <c r="C244" s="5"/>
+      <c r="D244" s="5"/>
+      <c r="E244" s="5"/>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" s="5"/>
+      <c r="B245" s="5"/>
+      <c r="C245" s="5"/>
+      <c r="D245" s="5"/>
+      <c r="E245" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687E4D45-D57C-46F0-9E85-97C423B9EEF2}">
+  <dimension ref="A1:E292"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
+      <selection activeCell="A258" sqref="A258"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="11.42578125" style="12"/>
+    <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E97" s="11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E98" s="11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E99" s="11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E101" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E102" s="11" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E103" s="11" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E104" s="11" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E105" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E106" s="11" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E107" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E108" s="11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E109" s="11" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E110" s="11" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E111" s="11" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E112" s="11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E113" s="11" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E114" s="11" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E115" s="11" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E116" s="11" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E117" s="11" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E118" s="11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E119" s="11" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E120" s="11" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E121" s="11" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E122" s="11" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E123" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E124" s="11" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E125" s="11" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E126" s="11" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E127" s="11" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E128" s="11" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E129" s="11" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E130" s="11" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E131" s="11" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E132" s="11" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E133" s="11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E134" s="11" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E135" s="11" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E136" s="11" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E137" s="11" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E138" s="11" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E139" s="11" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E140" s="11" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E141" s="11" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E142" s="11" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E143" s="11" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D144" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E144" s="11" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E145" s="11" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D146" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E146" s="11" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E147" s="11" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D148" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E148" s="11" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D149" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E149" s="11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D150" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E150" s="11" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D151" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E151" s="11" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D152" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E152" s="11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D153" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E153" s="11" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D154" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E154" s="11" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D155" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E155" s="11" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D156" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E156" s="11" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D157" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E157" s="11" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D158" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E158" s="11" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D159" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E159" s="11" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D160" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E160" s="11" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D161" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E161" s="11" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D162" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E162" s="11" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D163" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E163" s="11" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C164" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D164" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E164" s="11" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D165" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E165" s="11" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C166" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D166" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E166" s="11" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D167" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E167" s="11" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D168" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E168" s="11" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C169" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D169" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E169" s="11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C170" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D170" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E170" s="11" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D171" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E171" s="11" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B172" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C172" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D172" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E172" s="11" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C173" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D173" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E173" s="11" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B174" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C174" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D174" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E174" s="11" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C175" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D175" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E175" s="11" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D176" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E176" s="11" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D177" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E177" s="11" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B178" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C178" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D178" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E178" s="11" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D179" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E179" s="11" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C180" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D180" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E180" s="11" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D181" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E181" s="11" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C182" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D182" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E182" s="11" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C183" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D183" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E183" s="11" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B184" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C184" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D184" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E184" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B185" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D185" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E185" s="11" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C186" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D186" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E186" s="11" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B187" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C187" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D187" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E187" s="11" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B188" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C188" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D188" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E188" s="11" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C189" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D189" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E189" s="11" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B190" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C190" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D190" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E190" s="11" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C191" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D191" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E191" s="11" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B192" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C192" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D192" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E192" s="11" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C193" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D193" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E193" s="11" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B194" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C194" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D194" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E194" s="11" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D195" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E195" s="11" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B196" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C196" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D196" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E196" s="11" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C197" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D197" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E197" s="11" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B198" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C198" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D198" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E198" s="11" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C199" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D199" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E199" s="11" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B200" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C200" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D200" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E200" s="11" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C201" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D201" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E201" s="11" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B202" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C202" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D202" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E202" s="11" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B203" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C203" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D203" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E203" s="11" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B204" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C204" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D204" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E204" s="11" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B205" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C205" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D205" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E205" s="11" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B206" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C206" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D206" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E206" s="11" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B207" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C207" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D207" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E207" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B208" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C208" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D208" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E208" s="11" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B209" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C209" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D209" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E209" s="11" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B210" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C210" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D210" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E210" s="11" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B211" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C211" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D211" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E211" s="11" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B212" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C212" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D212" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E212" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B213" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C213" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D213" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E213" s="11" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B214" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C214" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D214" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E214" s="11" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B215" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C215" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D215" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E215" s="11" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B216" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C216" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D216" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E216" s="11" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B217" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C217" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D217" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E217" s="11" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B218" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C218" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D218" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E218" s="11" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B219" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C219" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D219" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E219" s="11" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B220" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C220" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D220" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E220" s="11" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B221" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C221" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D221" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E221" s="11" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B222" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C222" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D222" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E222" s="11" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B223" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C223" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D223" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E223" s="11" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B224" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C224" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D224" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E224" s="11" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B225" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C225" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D225" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E225" s="11" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B226" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C226" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D226" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E226" s="11" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B227" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C227" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D227" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E227" s="11" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B228" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C228" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D228" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E228" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B229" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C229" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D229" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E229" s="11" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B230" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C230" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D230" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E230" s="11" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B231" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C231" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D231" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E231" s="11" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B232" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C232" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D232" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E232" s="11" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B233" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C233" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D233" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E233" s="11" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B234" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C234" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D234" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E234" s="11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B235" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C235" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D235" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E235" s="11" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B236" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C236" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D236" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E236" s="11" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B237" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C237" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D237" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E237" s="11" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B238" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C238" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D238" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E238" s="11" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B239" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C239" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D239" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E239" s="11" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B240" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C240" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D240" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E240" s="11" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B241" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C241" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D241" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E241" s="11" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B242" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C242" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D242" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E242" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B243" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C243" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D243" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E243" s="11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B244" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C244" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D244" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E244" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B245" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C245" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D245" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E245" s="11" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B246" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C246" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D246" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E246" s="11" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B247" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C247" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D247" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E247" s="11" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B248" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C248" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D248" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E248" s="11" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B249" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C249" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D249" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E249" s="11" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B250" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C250" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D250" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E250" s="11" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B251" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C251" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D251" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E251" s="11" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B252" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C252" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D252" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E252" s="11" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B253" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C253" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D253" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E253" s="11" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B254" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C254" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D254" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E254" s="11" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B255" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C255" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D255" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E255" s="11" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B256" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C256" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D256" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E256" s="11" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B257" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C257" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D257" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E257" s="11" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B258" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C258" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D258" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E258" s="11" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" s="8"/>
+      <c r="B259" s="8"/>
+      <c r="C259" s="8"/>
+      <c r="D259" s="8"/>
+      <c r="E259" s="11"/>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" s="8"/>
+      <c r="B260" s="8"/>
+      <c r="C260" s="8"/>
+      <c r="D260" s="8"/>
+      <c r="E260" s="11"/>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261" s="8"/>
+      <c r="B261" s="8"/>
+      <c r="C261" s="8"/>
+      <c r="D261" s="8"/>
+      <c r="E261" s="11"/>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" s="8"/>
+      <c r="B262" s="8"/>
+      <c r="C262" s="8"/>
+      <c r="D262" s="8"/>
+      <c r="E262" s="11"/>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" s="8"/>
+      <c r="B263" s="8"/>
+      <c r="C263" s="8"/>
+      <c r="D263" s="8"/>
+      <c r="E263" s="11"/>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264" s="8"/>
+      <c r="B264" s="8"/>
+      <c r="C264" s="8"/>
+      <c r="D264" s="8"/>
+      <c r="E264" s="11"/>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" s="8"/>
+      <c r="B265" s="8"/>
+      <c r="C265" s="8"/>
+      <c r="D265" s="8"/>
+      <c r="E265" s="11"/>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266" s="8"/>
+      <c r="B266" s="8"/>
+      <c r="C266" s="8"/>
+      <c r="D266" s="8"/>
+      <c r="E266" s="11"/>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267" s="8"/>
+      <c r="B267" s="8"/>
+      <c r="C267" s="8"/>
+      <c r="D267" s="8"/>
+      <c r="E267" s="11"/>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268" s="8"/>
+      <c r="B268" s="8"/>
+      <c r="C268" s="8"/>
+      <c r="D268" s="8"/>
+      <c r="E268" s="11"/>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269" s="8"/>
+      <c r="B269" s="8"/>
+      <c r="C269" s="8"/>
+      <c r="D269" s="8"/>
+      <c r="E269" s="11"/>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270" s="8"/>
+      <c r="B270" s="8"/>
+      <c r="C270" s="8"/>
+      <c r="D270" s="8"/>
+      <c r="E270" s="11"/>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" s="8"/>
+      <c r="B271" s="8"/>
+      <c r="C271" s="8"/>
+      <c r="D271" s="8"/>
+      <c r="E271" s="11"/>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272" s="8"/>
+      <c r="B272" s="8"/>
+      <c r="C272" s="8"/>
+      <c r="D272" s="8"/>
+      <c r="E272" s="11"/>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" s="8"/>
+      <c r="B273" s="8"/>
+      <c r="C273" s="8"/>
+      <c r="D273" s="8"/>
+      <c r="E273" s="11"/>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274" s="8"/>
+      <c r="B274" s="8"/>
+      <c r="C274" s="8"/>
+      <c r="D274" s="8"/>
+      <c r="E274" s="11"/>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" s="8"/>
+      <c r="B275" s="8"/>
+      <c r="C275" s="8"/>
+      <c r="D275" s="8"/>
+      <c r="E275" s="11"/>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" s="8"/>
+      <c r="B276" s="8"/>
+      <c r="C276" s="8"/>
+      <c r="D276" s="8"/>
+      <c r="E276" s="11"/>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" s="8"/>
+      <c r="B277" s="8"/>
+      <c r="C277" s="8"/>
+      <c r="D277" s="8"/>
+      <c r="E277" s="11"/>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" s="8"/>
+      <c r="B278" s="8"/>
+      <c r="C278" s="8"/>
+      <c r="D278" s="8"/>
+      <c r="E278" s="11"/>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" s="8"/>
+      <c r="B279" s="8"/>
+      <c r="C279" s="8"/>
+      <c r="D279" s="8"/>
+      <c r="E279" s="11"/>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280" s="8"/>
+      <c r="B280" s="8"/>
+      <c r="C280" s="8"/>
+      <c r="D280" s="8"/>
+      <c r="E280" s="11"/>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" s="8"/>
+      <c r="B281" s="8"/>
+      <c r="C281" s="8"/>
+      <c r="D281" s="8"/>
+      <c r="E281" s="11"/>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282" s="8"/>
+      <c r="B282" s="8"/>
+      <c r="C282" s="8"/>
+      <c r="D282" s="8"/>
+      <c r="E282" s="11"/>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283" s="8"/>
+      <c r="B283" s="8"/>
+      <c r="C283" s="8"/>
+      <c r="D283" s="8"/>
+      <c r="E283" s="11"/>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" s="8"/>
+      <c r="B284" s="8"/>
+      <c r="C284" s="8"/>
+      <c r="D284" s="8"/>
+      <c r="E284" s="11"/>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285" s="8"/>
+      <c r="B285" s="8"/>
+      <c r="C285" s="8"/>
+      <c r="D285" s="8"/>
+      <c r="E285" s="11"/>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" s="8"/>
+      <c r="B286" s="8"/>
+      <c r="C286" s="8"/>
+      <c r="D286" s="8"/>
+      <c r="E286" s="11"/>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" s="8"/>
+      <c r="B287" s="8"/>
+      <c r="C287" s="8"/>
+      <c r="D287" s="8"/>
+      <c r="E287" s="11"/>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288" s="8"/>
+      <c r="B288" s="8"/>
+      <c r="C288" s="8"/>
+      <c r="D288" s="8"/>
+      <c r="E288" s="11"/>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289" s="8"/>
+      <c r="B289" s="8"/>
+      <c r="C289" s="8"/>
+      <c r="D289" s="8"/>
+      <c r="E289" s="11"/>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290" s="8"/>
+      <c r="B290" s="8"/>
+      <c r="C290" s="8"/>
+      <c r="D290" s="8"/>
+      <c r="E290" s="11"/>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291" s="8"/>
+      <c r="B291" s="8"/>
+      <c r="C291" s="8"/>
+      <c r="D291" s="8"/>
+      <c r="E291" s="11"/>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" s="8"/>
+      <c r="B292" s="8"/>
+      <c r="C292" s="8"/>
+      <c r="D292" s="8"/>
+      <c r="E292" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>